--- a/exposan/bwaise/results/MorrisA.xlsx
+++ b/exposan/bwaise/results/MorrisA.xlsx
@@ -833,16 +833,16 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>-0.05385864108124468</v>
+        <v>-0.05385864108124414</v>
       </c>
       <c r="D2">
-        <v>0.05385864108124468</v>
+        <v>0.05385864108124414</v>
       </c>
       <c r="E2">
-        <v>0.0240910109300244</v>
+        <v>0.02409101093002408</v>
       </c>
       <c r="F2">
-        <v>0.01508691775480593</v>
+        <v>0.01508691775480575</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -913,16 +913,16 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>-0.3251979573902591</v>
+        <v>-0.3251979573902575</v>
       </c>
       <c r="D6">
-        <v>0.3251979573902591</v>
+        <v>0.3251979573902575</v>
       </c>
       <c r="E6">
-        <v>0.1695383282632939</v>
+        <v>0.1695383282632935</v>
       </c>
       <c r="F6">
-        <v>0.09555156225879019</v>
+        <v>0.09555156225879037</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1013,16 +1013,16 @@
         <v>14</v>
       </c>
       <c r="C11">
-        <v>-0.1010054512020901</v>
+        <v>-0.1010054512020895</v>
       </c>
       <c r="D11">
-        <v>0.1010054512020901</v>
+        <v>0.1010054512020895</v>
       </c>
       <c r="E11">
-        <v>0.04941422842757182</v>
+        <v>0.04941422842757136</v>
       </c>
       <c r="F11">
-        <v>0.02758539451400299</v>
+        <v>0.02758539451400284</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1353,16 +1353,16 @@
         <v>31</v>
       </c>
       <c r="C28">
-        <v>-6.585012201113973</v>
+        <v>-6.585012201113974</v>
       </c>
       <c r="D28">
-        <v>6.585012201113973</v>
+        <v>6.585012201113974</v>
       </c>
       <c r="E28">
         <v>5.818824414502718</v>
       </c>
       <c r="F28">
-        <v>3.552857283591481</v>
+        <v>3.552857283591482</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1453,16 +1453,16 @@
         <v>36</v>
       </c>
       <c r="C33">
-        <v>0.0001309659080758418</v>
+        <v>0.0001309659080763748</v>
       </c>
       <c r="D33">
-        <v>0.0001309659080758418</v>
+        <v>0.0001309659080763748</v>
       </c>
       <c r="E33">
-        <v>6.772857524229961E-05</v>
+        <v>6.772857524348258E-05</v>
       </c>
       <c r="F33">
-        <v>4.232189039273217E-05</v>
+        <v>4.232189039341215E-05</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1693,16 +1693,16 @@
         <v>48</v>
       </c>
       <c r="C45">
-        <v>0.2339561857491221</v>
+        <v>0.2339561857491232</v>
       </c>
       <c r="D45">
-        <v>0.2339561857491221</v>
+        <v>0.2339561857491232</v>
       </c>
       <c r="E45">
-        <v>0.1589205354636082</v>
+        <v>0.1589205354636103</v>
       </c>
       <c r="F45">
-        <v>0.1120479004469708</v>
+        <v>0.1120479004469724</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1733,16 +1733,16 @@
         <v>50</v>
       </c>
       <c r="C47">
-        <v>0.06587886947819457</v>
+        <v>0.06587886947819563</v>
       </c>
       <c r="D47">
-        <v>0.06587886947819457</v>
+        <v>0.06587886947819563</v>
       </c>
       <c r="E47">
-        <v>0.0360331142026438</v>
+        <v>0.03603311420264397</v>
       </c>
       <c r="F47">
-        <v>0.0177268449777828</v>
+        <v>0.01772684497778291</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2473,16 +2473,16 @@
         <v>87</v>
       </c>
       <c r="C84">
-        <v>0.003568277544443354</v>
+        <v>0.003568277544443621</v>
       </c>
       <c r="D84">
-        <v>0.003568277544443354</v>
+        <v>0.003568277544443621</v>
       </c>
       <c r="E84">
-        <v>0.002796853101494217</v>
+        <v>0.002796853101493982</v>
       </c>
       <c r="F84">
-        <v>0.001674611909124326</v>
+        <v>0.001674611909124176</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -3019,10 +3019,10 @@
         <v>1.062202609997942</v>
       </c>
       <c r="E111">
-        <v>0.3924518813459759</v>
+        <v>0.392451881345976</v>
       </c>
       <c r="F111">
-        <v>0.2488280060104453</v>
+        <v>0.2488280060104454</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -3553,16 +3553,16 @@
         <v>141</v>
       </c>
       <c r="C138">
-        <v>0.3357505238698621</v>
+        <v>0.3357505238698624</v>
       </c>
       <c r="D138">
-        <v>0.3357505238698621</v>
+        <v>0.3357505238698624</v>
       </c>
       <c r="E138">
-        <v>0.01050098447261544</v>
+        <v>0.01050098447261585</v>
       </c>
       <c r="F138">
-        <v>0.007082312572980744</v>
+        <v>0.007082312572980969</v>
       </c>
     </row>
   </sheetData>
